--- a/MissionEveryday_DB설계.xlsx
+++ b/MissionEveryday_DB설계.xlsx
@@ -20,6 +20,48 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="166">
+  <x:si>
+    <x:t>성공시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닉네임</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t xml:space="preserve">post (글)
@@ -51,211 +93,510 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>마이페이지 - 참여 중인 미션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user/sign_up_view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "fail"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 내가 올린 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "true"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포스트 업로드한 유저 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 누른 유저 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user/sign_in_view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionStartDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionFinishDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 가입한 유저 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/language</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션! 에브리데이 DB 설계안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포스트 업로드된 미션 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/exercise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "false"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "success"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"result": "fail"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionIntroduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션! 에브리데이 URL 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 체크하는 유저 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/finance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MultipartFile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 인증 현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user (회원 도메인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar(255)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/hobby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 카테고리 ID（pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 가입한 유저 네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/study</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 쓴 유저 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포스트 업로드한 유저 네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>postCreatedAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>categoryName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar(128)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auto Increment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/diet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포스트 업로드된 미션 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인증 포스트 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 아이디 중복 체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionPeriod</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">category (미션 카테고리)
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>운동, 공부, 외국어, 다이어트, 취미, 재테크 (관리자 지정)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>postId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파라미터명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실패 시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2) 공부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 일수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(3) 외국어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loginId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(6) 재테크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imgPath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(1) 운동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(5) 취미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pasword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
     <x:t>URL path: /user/is_duplicated_id</x:t>
   </x:si>
   <x:si>
+    <x:t>포스트 글 (사진 위주 인증이기 때문에 글은 null 가능)</x:t>
+  </x:si>
+  <x:si>
     <x:t>URL path: /user/sign_up_for_submit</x:t>
   </x:si>
   <x:si>
-    <x:t>성공시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MultipartFile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 인증 현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"result": "success"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /mission/join</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /mission/out</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user/sign_up_view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 참여 중인 미션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "fail"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "true"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 내가 올린 포스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "success"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "false"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"result": "fail"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user/sign_in_view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포스트 글 (사진 위주 인증이기 때문에 글은 null 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>postId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실패 시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파라미터명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>loginId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content</x:t>
+    <x:t>포스트 생성날짜 (인증 날짜에 인증했는지 확인 목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">mission_check
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>기간동안 미션 달성 여부 체크</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>인증 이미지 (사진 인증 필수이므로 null 안됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">like (좋아요)
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>미션 가입한 유저만 좋아요 가능</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:t>URL path: /user/sign_in_check</x:t>
   </x:si>
   <x:si>
+    <x:t>Null 허용 여부</x:t>
+  </x:si>
+  <x:si>
     <x:t>URL path</x:t>
   </x:si>
   <x:si>
     <x:t>1. 미션 가입하기</x:t>
   </x:si>
   <x:si>
+    <x:t>2. 댓글 삭제</x:t>
+  </x:si>
+  <x:si>
     <x:t>설계자: 이의연</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 댓글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 허용 여부</x:t>
+    <x:t>my/status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 댓글 쓰기</x:t>
   </x:si>
   <x:si>
     <x:t>password</x:t>
   </x:si>
   <x:si>
+    <x:t>2. 미션 탈퇴하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 포스트 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 포스트 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my/mission</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionName</x:t>
+  </x:si>
+  <x:si>
     <x:t>missionId</x:t>
   </x:si>
   <x:si>
-    <x:t>3. 포스트 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 미션 탈퇴하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my/mission</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. 포스트 업로드</x:t>
   </x:si>
   <x:si>
-    <x:t>my/status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 댓글 쓰기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 포스트 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /user/sign_out</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/like_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /comment/delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /comment/create</x:t>
+    <x:t>7) 포스트 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 미션 상세 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 회원가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 가능 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 쓴 유저 네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9) 댓글 쓰기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>categoryId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 화면 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 카테고리 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 소개 이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일 (가입일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>createdAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(4) 다이어트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updatedAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 포스트 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. API 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 로그인 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 미션 가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 미션 탈퇴하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 좋아요 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8) 포스트 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timestamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar(15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10) 댓글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">mission_user
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>미션에 가입한 유저 테이블 (관계 테이블)</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -287,126 +628,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">mission_user
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>미션에 가입한 유저 테이블 (관계 테이블)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>미션 체크하는 유저 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 누른 유저 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionFinishDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포스트 업로드된 미션 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionStartDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionIntroduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션! 에브리데이 DB 설계안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 가입한 유저 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션! 에브리데이 URL 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포스트 업로드한 유저 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/exercise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/language</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/finance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user (회원 도메인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar(255)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 카테고리 ID（pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포스트 업로드한 유저 네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 아이디 중복 체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/hobby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/study</x:t>
-  </x:si>
-  <x:si>
-    <x:t>postCreatedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Auto Increment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/diet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 쓴 유저 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar(128)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포스트 업로드된 미션 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>categoryName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 가입한 유저 네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인증 포스트 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionPeriod</x:t>
+    <x:t>URL path: /comment/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/like_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /comment/create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /user/sign_out</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/mission_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/create</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -438,268 +675,31 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>포스트 생성날짜 (인증 날짜에 인증했는지 확인 목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">like (좋아요)
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>미션 가입한 유저만 좋아요 가능</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>인증 이미지 (사진 인증 필수이므로 null 안됨)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">mission_check
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>기간동안 미션 달성 여부 체크</x:t>
-    </x:r>
+    <x:t>{"result": "success"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /mission/join</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/update</x:t>
   </x:si>
   <x:si>
     <x:t>해당 댓글 달린 포스트 ID (pk)</x:t>
   </x:si>
   <x:si>
+    <x:t>URL path: /mission/out</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 좋아요가 달린 미션 ID (pk)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 댓글이 달린 미션 ID (pk)</x:t>
+  </x:si>
+  <x:si>
     <x:t>해당 좋아요가 달린 포스트 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 좋아요가 달린 미션 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 댓글이 달린 미션 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/mission_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">category (미션 카테고리)
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>운동, 공부, 외국어, 다이어트, 취미, 재테크 (관리자 지정)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>7) 포스트 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 카테고리 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 미션 상세 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(4) 다이어트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 쓴 유저 네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updatedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 화면 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 소개 이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 회원가입하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 가능 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9) 댓글 쓰기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>createdAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>categoryId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일 (가입일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar(15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. API 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10) 댓글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 미션 가입하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 ID (pk)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timestamp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 좋아요 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8) 포스트 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 로그인 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 미션 탈퇴하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 포스트 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(1) 운동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 반영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(5) 취미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(6) 재테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>imgPath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2) 공부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 일수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(3) 외국어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pasword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -760,12 +760,18 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="16"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="돋움"/>
-          <x:sz val="16"/>
+          <x:sz val="20"/>
           <x:color rgb="ff000000"/>
+          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -775,17 +781,12 @@
       <mc:Fallback>
         <x:font>
           <x:name val="돋움"/>
-          <x:sz val="16"/>
+          <x:sz val="20"/>
           <x:color rgb="ff000000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="20"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -2161,7 +2162,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2244,7 +2244,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2279,7 +2278,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2324,7 +2322,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2368,7 +2365,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2452,8 +2448,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2464,6 +2460,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -2473,8 +2470,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2490,6 +2487,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -2504,8 +2502,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2521,6 +2519,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -3411,7 +3410,7 @@
   <x:dimension ref="A1:L94"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E10" activeCellId="0" sqref="E10:E10"/>
+      <x:selection activeCell="J6" activeCellId="0" sqref="J6:J6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -3425,7 +3424,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="24.949999999999999">
       <x:c r="A1" s="76" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B1" s="77"/>
       <x:c r="C1" s="77"/>
@@ -3434,12 +3433,12 @@
     </x:row>
     <x:row r="2" spans="5:5" ht="22.5" customHeight="1">
       <x:c r="E2" s="30" t="s">
-        <x:v>53</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="25.5" customHeight="1">
       <x:c r="A4" s="72" t="s">
-        <x:v>85</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B4" s="73"/>
       <x:c r="C4" s="73"/>
@@ -3451,19 +3450,19 @@
     </x:row>
     <x:row r="5" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A5" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B5" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C5" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D5" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
@@ -3471,19 +3470,19 @@
     </x:row>
     <x:row r="6" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A6" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="18" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E6" s="19" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E6" s="19" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
@@ -3491,10 +3490,10 @@
     </x:row>
     <x:row r="7" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A7" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B7" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
         <x:v>5</x:v>
@@ -3511,10 +3510,10 @@
     </x:row>
     <x:row r="8" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A8" s="17" t="s">
-        <x:v>164</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B8" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
         <x:v>5</x:v>
@@ -3523,7 +3522,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
@@ -3531,10 +3530,10 @@
     </x:row>
     <x:row r="9" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A9" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
         <x:v>5</x:v>
@@ -3543,7 +3542,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="5"/>
       <x:c r="G9" s="5"/>
@@ -3551,10 +3550,10 @@
     </x:row>
     <x:row r="10" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A10" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
         <x:v>5</x:v>
@@ -3563,7 +3562,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="5"/>
       <x:c r="G10" s="5"/>
@@ -3571,10 +3570,10 @@
     </x:row>
     <x:row r="11" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A11" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
         <x:v>5</x:v>
@@ -3583,7 +3582,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="5"/>
       <x:c r="G11" s="5"/>
@@ -3591,10 +3590,10 @@
     </x:row>
     <x:row r="12" spans="1:8" ht="18.75" customHeight="1">
       <x:c r="A12" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B12" s="21" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
         <x:v>5</x:v>
@@ -3603,7 +3602,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="7"/>
@@ -3611,7 +3610,7 @@
     </x:row>
     <x:row r="17" spans="1:9" ht="47.25" customHeight="1">
       <x:c r="A17" s="75" t="s">
-        <x:v>113</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B17" s="73"/>
       <x:c r="C17" s="73"/>
@@ -3624,19 +3623,19 @@
     </x:row>
     <x:row r="18" spans="1:9" ht="18.75" customHeight="1">
       <x:c r="A18" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B18" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C18" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D18" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="3"/>
       <x:c r="G18" s="5"/>
@@ -3645,19 +3644,19 @@
     </x:row>
     <x:row r="19" spans="1:9" ht="18.75" customHeight="1">
       <x:c r="A19" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B19" s="18" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C19" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E19" s="19" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C19" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D19" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E19" s="19" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F19" s="3"/>
       <x:c r="G19" s="5"/>
@@ -3666,10 +3665,10 @@
     </x:row>
     <x:row r="20" spans="1:9" ht="18.75" customHeight="1">
       <x:c r="A20" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B20" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
         <x:v>5</x:v>
@@ -3678,7 +3677,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F20" s="3"/>
       <x:c r="G20" s="5"/>
@@ -3687,10 +3686,10 @@
     </x:row>
     <x:row r="21" spans="1:9" ht="18.75" customHeight="1">
       <x:c r="A21" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B21" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
         <x:v>5</x:v>
@@ -3699,7 +3698,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="3"/>
       <x:c r="G21" s="5"/>
@@ -3708,10 +3707,10 @@
     </x:row>
     <x:row r="22" spans="1:9" ht="18.75" customHeight="1">
       <x:c r="A22" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B22" s="21" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C22" s="21" t="s">
         <x:v>5</x:v>
@@ -3720,7 +3719,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E22" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F22" s="4"/>
       <x:c r="G22" s="7"/>
@@ -3740,7 +3739,7 @@
     </x:row>
     <x:row r="25" spans="1:12" ht="44.25" customHeight="1">
       <x:c r="A25" s="75" t="s">
-        <x:v>103</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B25" s="73"/>
       <x:c r="C25" s="73"/>
@@ -3756,19 +3755,19 @@
     </x:row>
     <x:row r="26" spans="1:12">
       <x:c r="A26" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B26" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C26" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D26" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="5"/>
       <x:c r="G26" s="5"/>
@@ -3780,19 +3779,19 @@
     </x:row>
     <x:row r="27" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A27" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C27" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E27" s="19" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C27" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D27" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E27" s="19" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F27" s="5"/>
       <x:c r="G27" s="5"/>
@@ -3804,10 +3803,10 @@
     </x:row>
     <x:row r="28" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A28" s="17" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
         <x:v>5</x:v>
@@ -3816,7 +3815,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F28" s="5"/>
       <x:c r="G28" s="5"/>
@@ -3828,10 +3827,10 @@
     </x:row>
     <x:row r="29" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A29" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B29" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
         <x:v>5</x:v>
@@ -3840,7 +3839,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F29" s="5"/>
       <x:c r="G29" s="5"/>
@@ -3852,10 +3851,10 @@
     </x:row>
     <x:row r="30" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A30" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B30" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
         <x:v>5</x:v>
@@ -3864,7 +3863,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F30" s="5"/>
       <x:c r="G30" s="5"/>
@@ -3876,10 +3875,10 @@
     </x:row>
     <x:row r="31" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A31" s="17" t="s">
-        <x:v>77</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B31" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
         <x:v>5</x:v>
@@ -3888,7 +3887,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F31" s="5"/>
       <x:c r="G31" s="5"/>
@@ -3900,10 +3899,10 @@
     </x:row>
     <x:row r="32" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A32" s="17" t="s">
-        <x:v>101</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B32" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
         <x:v>5</x:v>
@@ -3912,7 +3911,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F32" s="5"/>
       <x:c r="G32" s="5"/>
@@ -3924,10 +3923,10 @@
     </x:row>
     <x:row r="33" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A33" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B33" s="18" t="s">
-        <x:v>151</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
         <x:v>5</x:v>
@@ -3936,7 +3935,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F33" s="5"/>
       <x:c r="G33" s="5"/>
@@ -3948,10 +3947,10 @@
     </x:row>
     <x:row r="34" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A34" s="17" t="s">
-        <x:v>74</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="18" t="s">
-        <x:v>151</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
         <x:v>5</x:v>
@@ -3960,7 +3959,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F34" s="5"/>
       <x:c r="G34" s="5"/>
@@ -3972,10 +3971,10 @@
     </x:row>
     <x:row r="35" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A35" s="17" t="s">
-        <x:v>102</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B35" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
         <x:v>5</x:v>
@@ -3984,7 +3983,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F35" s="5"/>
       <x:c r="G35" s="5"/>
@@ -3996,10 +3995,10 @@
     </x:row>
     <x:row r="36" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A36" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B36" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
         <x:v>5</x:v>
@@ -4008,7 +4007,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="5"/>
       <x:c r="G36" s="5"/>
@@ -4020,10 +4019,10 @@
     </x:row>
     <x:row r="37" spans="1:12" ht="18.75" customHeight="1">
       <x:c r="A37" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B37" s="21" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C37" s="21" t="s">
         <x:v>5</x:v>
@@ -4032,7 +4031,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E37" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F37" s="7"/>
       <x:c r="G37" s="7"/>
@@ -4064,7 +4063,7 @@
     </x:row>
     <x:row r="40" spans="1:5" ht="43.5" customHeight="1">
       <x:c r="A40" s="75" t="s">
-        <x:v>71</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B40" s="73"/>
       <x:c r="C40" s="73"/>
@@ -4073,27 +4072,27 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B41" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C41" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D41" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B42" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
         <x:v>5</x:v>
@@ -4102,15 +4101,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B43" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
         <x:v>5</x:v>
@@ -4119,15 +4118,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5" ht="27" customHeight="1">
       <x:c r="A44" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B44" s="24" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
         <x:v>5</x:v>
@@ -4136,15 +4135,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E44" s="31" t="s">
-        <x:v>79</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5" ht="27" customHeight="1">
       <x:c r="A45" s="23" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B45" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
         <x:v>5</x:v>
@@ -4153,15 +4152,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E45" s="31" t="s">
-        <x:v>99</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="20" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B46" s="21" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C46" s="21" t="s">
         <x:v>5</x:v>
@@ -4170,7 +4169,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E46" s="22" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="2:5">
@@ -4181,7 +4180,7 @@
     </x:row>
     <x:row r="49" spans="1:9" ht="45" customHeight="1">
       <x:c r="A49" s="75" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B49" s="73"/>
       <x:c r="C49" s="73"/>
@@ -4194,19 +4193,19 @@
     </x:row>
     <x:row r="50" spans="1:9" ht="18" customHeight="1">
       <x:c r="A50" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B50" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C50" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D50" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F50" s="5"/>
       <x:c r="G50" s="5"/>
@@ -4215,19 +4214,19 @@
     </x:row>
     <x:row r="51" spans="1:9" ht="18" customHeight="1">
       <x:c r="A51" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B51" s="24" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C51" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D51" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E51" s="19" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C51" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D51" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E51" s="19" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F51" s="5"/>
       <x:c r="G51" s="5"/>
@@ -4236,10 +4235,10 @@
     </x:row>
     <x:row r="52" spans="1:9" ht="18" customHeight="1">
       <x:c r="A52" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B52" s="24" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
         <x:v>5</x:v>
@@ -4248,7 +4247,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F52" s="5"/>
       <x:c r="G52" s="5"/>
@@ -4257,10 +4256,10 @@
     </x:row>
     <x:row r="53" spans="1:9" ht="18" customHeight="1">
       <x:c r="A53" s="23" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B53" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
         <x:v>5</x:v>
@@ -4269,7 +4268,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F53" s="5"/>
       <x:c r="G53" s="5"/>
@@ -4278,10 +4277,10 @@
     </x:row>
     <x:row r="54" spans="1:9" ht="18" customHeight="1">
       <x:c r="A54" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B54" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
         <x:v>5</x:v>
@@ -4290,7 +4289,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F54" s="5"/>
       <x:c r="G54" s="5"/>
@@ -4299,10 +4298,10 @@
     </x:row>
     <x:row r="55" spans="1:9" ht="18" customHeight="1">
       <x:c r="A55" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B55" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
         <x:v>5</x:v>
@@ -4311,7 +4310,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F55" s="5"/>
       <x:c r="G55" s="5"/>
@@ -4320,19 +4319,19 @@
     </x:row>
     <x:row r="56" spans="1:9" ht="18" customHeight="1">
       <x:c r="A56" s="23" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B56" s="24" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D56" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>35</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F56" s="5"/>
       <x:c r="G56" s="5"/>
@@ -4341,10 +4340,10 @@
     </x:row>
     <x:row r="57" spans="1:9" ht="18" customHeight="1">
       <x:c r="A57" s="23" t="s">
-        <x:v>148</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B57" s="24" t="s">
-        <x:v>86</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
         <x:v>5</x:v>
@@ -4353,7 +4352,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F57" s="5"/>
       <x:c r="G57" s="5"/>
@@ -4362,10 +4361,10 @@
     </x:row>
     <x:row r="58" spans="1:9" ht="18" customHeight="1">
       <x:c r="A58" s="23" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B58" s="24" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
         <x:v>5</x:v>
@@ -4374,7 +4373,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="5"/>
       <x:c r="G58" s="5"/>
@@ -4383,10 +4382,10 @@
     </x:row>
     <x:row r="59" spans="1:9" ht="18" customHeight="1">
       <x:c r="A59" s="25" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B59" s="26" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C59" s="21" t="s">
         <x:v>5</x:v>
@@ -4395,7 +4394,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E59" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F59" s="7"/>
       <x:c r="G59" s="7"/>
@@ -4404,7 +4403,7 @@
     </x:row>
     <x:row r="63" spans="1:5" ht="38.25" customHeight="1">
       <x:c r="A63" s="75" t="s">
-        <x:v>70</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B63" s="73"/>
       <x:c r="C63" s="73"/>
@@ -4413,44 +4412,44 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B64" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C64" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D64" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E64" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B65" s="24" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C65" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D65" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E65" s="19" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C65" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D65" s="18" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E65" s="19" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B66" s="24" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C66" s="18" t="s">
         <x:v>5</x:v>
@@ -4459,15 +4458,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="23" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B67" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
         <x:v>5</x:v>
@@ -4476,15 +4475,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B68" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C68" s="18" t="s">
         <x:v>5</x:v>
@@ -4493,15 +4492,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B69" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="18" t="s">
         <x:v>5</x:v>
@@ -4510,15 +4509,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B70" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C70" s="18" t="s">
         <x:v>5</x:v>
@@ -4527,15 +4526,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E70" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="23" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B71" s="24" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C71" s="18" t="s">
         <x:v>5</x:v>
@@ -4544,15 +4543,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E71" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="25" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B72" s="26" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C72" s="21" t="s">
         <x:v>5</x:v>
@@ -4561,12 +4560,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E72" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5" ht="33.75" customHeight="1">
       <x:c r="A75" s="75" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B75" s="73"/>
       <x:c r="C75" s="73"/>
@@ -4575,27 +4574,27 @@
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B76" s="15" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C76" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D76" s="15" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E76" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="17" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B77" s="24" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C77" s="18" t="s">
         <x:v>5</x:v>
@@ -4604,15 +4603,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E77" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B78" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C78" s="18" t="s">
         <x:v>5</x:v>
@@ -4621,15 +4620,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E78" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B79" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C79" s="18" t="s">
         <x:v>5</x:v>
@@ -4638,15 +4637,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E79" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="25" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B80" s="26" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C80" s="21" t="s">
         <x:v>5</x:v>
@@ -4655,12 +4654,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E80" s="22" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:9" ht="39.75" customHeight="1">
       <x:c r="A83" s="79" t="s">
-        <x:v>107</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B83" s="80"/>
       <x:c r="C83" s="80"/>
@@ -4673,19 +4672,19 @@
     </x:row>
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="27" t="s">
-        <x:v>165</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B84" s="28" t="s">
-        <x:v>160</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C84" s="28" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D84" s="28" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E84" s="29" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F84" s="3"/>
       <x:c r="G84" s="5"/>
@@ -4694,10 +4693,10 @@
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="17" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B85" s="24" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C85" s="18" t="s">
         <x:v>5</x:v>
@@ -4706,7 +4705,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E85" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F85" s="3"/>
       <x:c r="G85" s="5"/>
@@ -4715,10 +4714,10 @@
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B86" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C86" s="18" t="s">
         <x:v>5</x:v>
@@ -4727,7 +4726,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E86" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F86" s="3"/>
       <x:c r="G86" s="5"/>
@@ -4736,10 +4735,10 @@
     </x:row>
     <x:row r="87" spans="1:9">
       <x:c r="A87" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B87" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C87" s="18" t="s">
         <x:v>5</x:v>
@@ -4748,7 +4747,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E87" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F87" s="3"/>
       <x:c r="G87" s="5"/>
@@ -4757,10 +4756,10 @@
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B88" s="18" t="s">
-        <x:v>151</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C88" s="18" t="s">
         <x:v>5</x:v>
@@ -4769,7 +4768,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E88" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F88" s="3"/>
       <x:c r="G88" s="5"/>
@@ -4778,10 +4777,10 @@
     </x:row>
     <x:row r="89" spans="1:9">
       <x:c r="A89" s="17" t="s">
-        <x:v>74</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B89" s="18" t="s">
-        <x:v>151</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C89" s="18" t="s">
         <x:v>5</x:v>
@@ -4790,7 +4789,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E89" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F89" s="3"/>
       <x:c r="G89" s="5"/>
@@ -4799,10 +4798,10 @@
     </x:row>
     <x:row r="90" spans="1:9">
       <x:c r="A90" s="17" t="s">
-        <x:v>102</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B90" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C90" s="18" t="s">
         <x:v>5</x:v>
@@ -4811,7 +4810,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F90" s="3"/>
       <x:c r="G90" s="5"/>
@@ -4820,10 +4819,10 @@
     </x:row>
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B91" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C91" s="18" t="s">
         <x:v>5</x:v>
@@ -4832,7 +4831,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F91" s="3"/>
       <x:c r="G91" s="5"/>
@@ -4841,10 +4840,10 @@
     </x:row>
     <x:row r="92" spans="1:9">
       <x:c r="A92" s="23" t="s">
-        <x:v>92</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B92" s="24" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C92" s="18" t="s">
         <x:v>5</x:v>
@@ -4853,7 +4852,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F92" s="3"/>
       <x:c r="G92" s="5"/>
@@ -4862,10 +4861,10 @@
     </x:row>
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="23" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B93" s="24" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C93" s="18" t="s">
         <x:v>5</x:v>
@@ -4874,7 +4873,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E93" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="3"/>
       <x:c r="G93" s="5"/>
@@ -4883,10 +4882,10 @@
     </x:row>
     <x:row r="94" spans="1:9">
       <x:c r="A94" s="25" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B94" s="26" t="s">
-        <x:v>135</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C94" s="21" t="s">
         <x:v>5</x:v>
@@ -4895,7 +4894,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E94" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F94" s="4"/>
       <x:c r="G94" s="7"/>
@@ -4938,7 +4937,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="24.949999999999999">
       <x:c r="A1" s="76" t="s">
-        <x:v>80</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B1" s="77"/>
       <x:c r="C1" s="77"/>
@@ -4947,7 +4946,7 @@
     </x:row>
     <x:row r="2" spans="5:5">
       <x:c r="E2" s="30" t="s">
-        <x:v>53</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="5:5">
@@ -4955,130 +4954,130 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="82" t="s">
-        <x:v>121</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B4" s="82"/>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="33" t="s">
-        <x:v>37</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B5" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>38</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>163</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" t="s">
-        <x:v>142</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="32" t="s">
-        <x:v>141</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="32" t="s">
-        <x:v>150</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>91</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="32" t="s">
-        <x:v>154</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>83</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="32" t="s">
-        <x:v>118</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>94</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="32" t="s">
-        <x:v>144</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>90</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="32" t="s">
-        <x:v>147</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>84</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>112</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>61</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>45</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1">
       <x:c r="A22" s="34" t="s">
-        <x:v>130</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:1">
@@ -5091,7 +5090,7 @@
     </x:row>
     <x:row r="25" spans="1:1">
       <x:c r="A25" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
@@ -5099,22 +5098,22 @@
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="33" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B27" s="33" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C27" s="33" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D27" s="33"/>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" t="s">
-        <x:v>47</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C28" t="s">
         <x:v>5</x:v>
@@ -5122,10 +5121,10 @@
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" t="s">
-        <x:v>56</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C29" t="s">
         <x:v>5</x:v>
@@ -5133,10 +5132,10 @@
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C30" t="s">
         <x:v>5</x:v>
@@ -5144,10 +5143,10 @@
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C31" t="s">
         <x:v>5</x:v>
@@ -5155,31 +5154,31 @@
     </x:row>
     <x:row r="33" spans="1:1">
       <x:c r="A33" t="s">
-        <x:v>145</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:1">
       <x:c r="A34" t="s">
-        <x:v>50</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B35" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C35" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B36" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
         <x:v>5</x:v>
@@ -5187,10 +5186,10 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B37" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C37" s="8" t="s">
         <x:v>5</x:v>
@@ -5198,17 +5197,17 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="86" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="87"/>
       <x:c r="C38" s="43"/>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C39" s="2"/>
     </x:row>
@@ -5217,79 +5216,79 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B40" s="45" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C40" s="2"/>
     </x:row>
     <x:row r="42" spans="1:1">
       <x:c r="A42" t="s">
-        <x:v>153</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:1">
       <x:c r="A43" t="s">
-        <x:v>66</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B44" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C44" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="83" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B45" s="84"/>
       <x:c r="C45" s="85"/>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B46" s="85"/>
       <x:c r="C46" s="5"/>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="89" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B47" s="90"/>
       <x:c r="C47" s="5"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" t="s">
-        <x:v>89</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" t="s">
-        <x:v>1</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="36" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B51" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C51" s="38" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B52" s="44" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C52" s="45" t="s">
         <x:v>5</x:v>
@@ -5297,53 +5296,53 @@
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B53" s="85"/>
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" s="44" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B55" s="45" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" t="s">
-        <x:v>132</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:1">
       <x:c r="A59" t="s">
-        <x:v>15</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="36" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B60" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C60" s="38" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="47" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B61" s="48" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="49" t="s">
         <x:v>5</x:v>
@@ -5351,10 +5350,10 @@
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="47" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B62" s="48" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C62" s="49" t="s">
         <x:v>5</x:v>
@@ -5362,10 +5361,10 @@
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="50" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B63" s="48" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C63" s="49" t="s">
         <x:v>5</x:v>
@@ -5373,10 +5372,10 @@
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="50" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B64" s="51" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C64" s="52" t="s">
         <x:v>5</x:v>
@@ -5384,16 +5383,16 @@
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="85"/>
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
@@ -5401,36 +5400,36 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B67" s="45" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:1">
       <x:c r="A69" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1">
       <x:c r="A70" t="s">
-        <x:v>19</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="36" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B71" s="37" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C71" s="38" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="47" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B72" s="53" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C72" s="54" t="s">
         <x:v>5</x:v>
@@ -5438,10 +5437,10 @@
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="55" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B73" s="56" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C73" s="57" t="s">
         <x:v>5</x:v>
@@ -5449,16 +5448,16 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B74" s="85"/>
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B75" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
@@ -5466,36 +5465,36 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B76" s="45" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:1">
       <x:c r="A78" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:1">
       <x:c r="A79" t="s">
-        <x:v>18</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:3">
       <x:c r="A80" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B80" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C80" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:3">
       <x:c r="A81" s="46" t="s">
-        <x:v>36</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B81" s="44" t="s">
-        <x:v>11</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C81" s="45" t="s">
         <x:v>5</x:v>
@@ -5503,64 +5502,64 @@
     </x:row>
     <x:row r="82" spans="1:3">
       <x:c r="A82" s="46" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B82" s="44" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C82" s="45" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B83" s="85"/>
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B84" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" s="44" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B85" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:1">
       <x:c r="A89" t="s">
-        <x:v>114</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:1">
       <x:c r="A90" t="s">
-        <x:v>16</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B91" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C91" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B92" s="56" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C92" s="57" t="s">
         <x:v>5</x:v>
@@ -5568,10 +5567,10 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B93" s="56" t="s">
-        <x:v>11</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C93" s="57" t="s">
         <x:v>5</x:v>
@@ -5579,35 +5578,35 @@
     </x:row>
     <x:row r="94" spans="1:3">
       <x:c r="A94" s="58" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B94" s="51" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C94" s="52" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B95" s="85"/>
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B96" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="44" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B97" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
@@ -5616,31 +5615,31 @@
     </x:row>
     <x:row r="100" spans="1:1">
       <x:c r="A100" t="s">
-        <x:v>137</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:1">
       <x:c r="A101" t="s">
-        <x:v>17</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
       <x:c r="A102" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B102" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C102" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:3">
       <x:c r="A103" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B103" s="56" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C103" s="57" t="s">
         <x:v>5</x:v>
@@ -5648,53 +5647,53 @@
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B104" s="85"/>
     </x:row>
     <x:row r="105" spans="1:2">
       <x:c r="A105" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B105" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2">
       <x:c r="A106" s="44" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B106" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:1">
       <x:c r="A109" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:1">
       <x:c r="A110" t="s">
-        <x:v>69</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
       <x:c r="A111" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B111" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C111" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
       <x:c r="A112" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B112" s="56" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C112" s="57" t="s">
         <x:v>5</x:v>
@@ -5702,10 +5701,10 @@
     </x:row>
     <x:row r="113" spans="1:3">
       <x:c r="A113" s="59" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B113" s="56" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C113" s="57" t="s">
         <x:v>5</x:v>
@@ -5713,53 +5712,53 @@
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B114" s="85"/>
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B115" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:2">
       <x:c r="A116" s="44" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B116" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:1">
       <x:c r="A118" t="s">
-        <x:v>131</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:1">
       <x:c r="A119" t="s">
-        <x:v>68</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:3">
       <x:c r="A120" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B120" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C120" s="41" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:3">
       <x:c r="A121" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B121" s="56" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C121" s="57" t="s">
         <x:v>5</x:v>
@@ -5767,10 +5766,10 @@
     </x:row>
     <x:row r="122" spans="1:3">
       <x:c r="A122" s="59" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B122" s="56" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C122" s="57" t="s">
         <x:v>5</x:v>
@@ -5778,24 +5777,24 @@
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" s="88" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B123" s="85"/>
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="42" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B124" s="43" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="44" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B125" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5839,33 +5838,33 @@
   <x:sheetData>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="34" t="s">
-        <x:v>52</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
       <x:c r="B4" s="60" t="s">
-        <x:v>15</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C4" s="60"/>
       <x:c r="D4" s="60"/>
     </x:row>
     <x:row r="5" spans="2:4">
       <x:c r="B5" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="47" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C6" s="64" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="65" t="s">
         <x:v>5</x:v>
@@ -5873,10 +5872,10 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="47" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C7" s="64" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D7" s="65" t="s">
         <x:v>5</x:v>
@@ -5884,10 +5883,10 @@
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="50" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C8" s="64" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="65" t="s">
         <x:v>5</x:v>
@@ -5895,10 +5894,10 @@
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="50" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="66" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D9" s="67" t="s">
         <x:v>5</x:v>
@@ -5906,17 +5905,17 @@
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="92"/>
       <x:c r="D10" s="68"/>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D11" s="68"/>
     </x:row>
@@ -5925,7 +5924,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="68"/>
     </x:row>
@@ -5935,33 +5934,33 @@
     </x:row>
     <x:row r="15" spans="2:2">
       <x:c r="B15" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="93" t="s">
-        <x:v>19</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C16" s="93"/>
       <x:c r="D16" s="93"/>
     </x:row>
     <x:row r="17" spans="2:4">
       <x:c r="B17" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C17" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D17" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="47" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C18" s="64" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="65" t="s">
         <x:v>5</x:v>
@@ -5969,10 +5968,10 @@
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="55" t="s">
-        <x:v>159</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C19" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="67" t="s">
         <x:v>5</x:v>
@@ -5980,17 +5979,17 @@
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="92"/>
       <x:c r="D20" s="68"/>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D21" s="68"/>
     </x:row>
@@ -5999,7 +5998,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="22" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D22" s="68"/>
     </x:row>
@@ -6033,33 +6032,33 @@
   <x:sheetData>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
       <x:c r="B4" s="68" t="s">
-        <x:v>18</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C4" s="68"/>
       <x:c r="D4" s="68"/>
     </x:row>
     <x:row r="5" spans="2:4">
       <x:c r="B5" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C6" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
         <x:v>5</x:v>
@@ -6067,69 +6066,69 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="20" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C7" s="21" t="s">
-        <x:v>41</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="92"/>
       <x:c r="D8" s="68"/>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="68"/>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="68"/>
     </x:row>
     <x:row r="14" spans="2:2">
       <x:c r="B14" s="34" t="s">
-        <x:v>65</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:4">
       <x:c r="B15" s="68" t="s">
-        <x:v>16</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C15" s="68"/>
       <x:c r="D15" s="68"/>
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C16" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:4">
       <x:c r="B17" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C17" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="67" t="s">
         <x:v>5</x:v>
@@ -6137,10 +6136,10 @@
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="71" t="s">
-        <x:v>36</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C18" s="66" t="s">
-        <x:v>11</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D18" s="67" t="s">
         <x:v>5</x:v>
@@ -6148,37 +6147,37 @@
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="71" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C19" s="66" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D19" s="67" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="92"/>
       <x:c r="D20" s="68"/>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D21" s="68"/>
     </x:row>
     <x:row r="22" spans="2:4">
       <x:c r="B22" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C22" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D22" s="68"/>
     </x:row>
@@ -6188,33 +6187,33 @@
     </x:row>
     <x:row r="25" spans="2:2">
       <x:c r="B25" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:4">
       <x:c r="B26" s="68" t="s">
-        <x:v>17</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C26" s="68"/>
       <x:c r="D26" s="68"/>
     </x:row>
     <x:row r="27" spans="2:4">
       <x:c r="B27" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C27" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D27" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C28" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D28" s="67" t="s">
         <x:v>5</x:v>
@@ -6222,26 +6221,26 @@
     </x:row>
     <x:row r="29" spans="2:4">
       <x:c r="B29" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C29" s="92"/>
       <x:c r="D29" s="68"/>
     </x:row>
     <x:row r="30" spans="2:4">
       <x:c r="B30" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C30" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D30" s="68"/>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C31" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D31" s="68"/>
     </x:row>
@@ -6275,31 +6274,31 @@
   <x:sheetData>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:2">
       <x:c r="B4" t="s">
-        <x:v>69</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:4">
       <x:c r="B5" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="67" t="s">
         <x:v>5</x:v>
@@ -6307,10 +6306,10 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="71" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C7" s="66" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D7" s="67" t="s">
         <x:v>5</x:v>
@@ -6318,56 +6317,56 @@
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="92"/>
       <x:c r="D8" s="68"/>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="68"/>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="68"/>
     </x:row>
     <x:row r="12" spans="2:2">
       <x:c r="B12" s="34" t="s">
-        <x:v>54</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:2">
       <x:c r="B13" t="s">
-        <x:v>68</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:4">
       <x:c r="B14" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C14" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D14" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:4">
       <x:c r="B15" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C15" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="67" t="s">
         <x:v>5</x:v>
@@ -6375,10 +6374,10 @@
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="71" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C16" s="66" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="67" t="s">
         <x:v>5</x:v>
@@ -6386,26 +6385,26 @@
     </x:row>
     <x:row r="17" spans="2:4">
       <x:c r="B17" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C17" s="92"/>
       <x:c r="D17" s="68"/>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="68"/>
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C19" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D19" s="68"/>
     </x:row>
@@ -6438,31 +6437,31 @@
   <x:sheetData>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="34" t="s">
-        <x:v>143</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:2">
       <x:c r="B4" t="s">
-        <x:v>67</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:4">
       <x:c r="B5" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="67" t="s">
         <x:v>5</x:v>
@@ -6470,56 +6469,56 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="92"/>
       <x:c r="D7" s="68"/>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D8" s="68"/>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="68"/>
     </x:row>
     <x:row r="11" spans="2:2">
       <x:c r="B11" s="34" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:2">
       <x:c r="B12" t="s">
-        <x:v>115</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:4">
       <x:c r="B13" s="61" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" s="62" t="s">
-        <x:v>48</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D13" s="63" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:4">
       <x:c r="B14" s="71" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C14" s="66" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="67" t="s">
         <x:v>5</x:v>
@@ -6527,10 +6526,10 @@
     </x:row>
     <x:row r="15" spans="2:4">
       <x:c r="B15" s="71" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="66" t="s">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="67" t="s">
         <x:v>5</x:v>
@@ -6538,26 +6537,26 @@
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="91" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="92"/>
       <x:c r="D16" s="68"/>
     </x:row>
     <x:row r="17" spans="2:4">
       <x:c r="B17" s="69" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="70" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D17" s="68"/>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C18" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D18" s="68"/>
     </x:row>
